--- a/Rapport/TestResultaat.xlsx
+++ b/Rapport/TestResultaat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\GitHub\Databases2\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90573EDC-7B96-4240-8E52-BA1DF19EFC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4CDC76-CFF0-4102-B993-F69B841252C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,18 +118,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,6 +134,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,13 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +239,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF88B5A"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -553,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,25 +571,25 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="4"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
     <col min="19" max="19" width="15.140625" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="24" max="24" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -590,7 +598,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -608,69 +616,69 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="V3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -732,7 +740,7 @@
         <v>8687</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -794,7 +802,7 @@
         <v>9573</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -856,92 +864,94 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <f>AVERAGE(B4:B6)</f>
         <v>228.33333333333334</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <f>AVERAGE(C4:C6)</f>
         <v>21</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f>AVERAGE(D4:D6)</f>
         <v>191</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <f>AVERAGE(E4:E6)</f>
         <v>1790</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f>AVERAGE(H4:H6)</f>
         <v>7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f>AVERAGE(I4:I6)</f>
         <v>9</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f>AVERAGE(J4:J6)</f>
         <v>84.333333333333329</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <f>AVERAGE(K4:K6)</f>
         <v>849</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <f>AVERAGE(N4:N6)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <f>AVERAGE(O4:O6)</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <f>AVERAGE(P4:P6)</f>
         <v>198.66666666666666</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <f>AVERAGE(Q4:Q6)</f>
         <v>1893.6666666666667</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="3">
         <f>AVERAGE(T4:T6)</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <f>AVERAGE(U4:U6)</f>
         <v>23.666666666666668</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="3">
         <f>AVERAGE(V4:V6)</f>
         <v>342.66666666666669</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="3">
         <f>AVERAGE(W4:W6)</f>
         <v>9635.6666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,7 +960,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,69 +978,69 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="s">
+      <c r="P11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="4" t="s">
+      <c r="V11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1102,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1216,86 +1226,89 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <f>AVERAGE(B12:B14)</f>
         <v>300.66666666666669</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <f>AVERAGE(C12:C14)</f>
         <v>215</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <f>AVERAGE(D12:D14)</f>
         <v>1683.3333333333333</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <f>AVERAGE(E12:E14)</f>
         <v>16155.333333333334</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f>AVERAGE(H12:H14)</f>
         <v>25.333333333333332</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <f>AVERAGE(I12:I14)</f>
         <v>45.333333333333336</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <f>AVERAGE(J12:J14)</f>
         <v>397.33333333333331</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <f>AVERAGE(K12:K14)</f>
         <v>3980.6666666666665</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <f>AVERAGE(N12:N14)</f>
         <v>50.666666666666664</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <f>AVERAGE(O12:O14)</f>
         <v>205.33333333333334</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <f>AVERAGE(P12:P14)</f>
         <v>1802.3333333333333</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <f>AVERAGE(Q12:Q14)</f>
         <v>16411</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <f>AVERAGE(T12:T14)</f>
         <v>3</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <f>AVERAGE(U12:U14)</f>
         <v>38</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="3">
         <f>AVERAGE(V12:V14)</f>
         <v>365.66666666666669</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="3">
         <f>AVERAGE(W12:W14)</f>
         <v>3641.3333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1317,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,69 +1335,69 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="P19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4" t="s">
+      <c r="V19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1459,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1521,7 @@
         <v>443913</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1570,85 +1583,88 @@
         <v>437372</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <f>AVERAGE(B20:B22)</f>
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <f>AVERAGE(C20:C22)</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <f>AVERAGE(D20:D22)</f>
         <v>264.66666666666669</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <f>AVERAGE(E20:E22)</f>
         <v>2347</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <f>AVERAGE(H20:H22)</f>
         <v>52</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <f>AVERAGE(I20:I22)</f>
         <v>2923.3333333333335</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <f>AVERAGE(J20:J22)</f>
         <v>29387.666666666668</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <f>AVERAGE(K20:K22)</f>
         <v>319414.33333333331</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="3">
         <f>AVERAGE(N20:N22)</f>
         <v>74</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <f>AVERAGE(O20:O22)</f>
         <v>2997.6666666666665</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="3">
         <f>AVERAGE(P20:P22)</f>
         <v>30012.333333333332</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="3">
         <f>AVERAGE(Q20:Q22)</f>
         <v>328617.33333333331</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="3">
         <f>AVERAGE(T20:T22)</f>
         <v>32.666666666666664</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="3">
         <f>AVERAGE(U20:U22)</f>
         <v>2921.6666666666665</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="3">
         <f>AVERAGE(V20:V22)</f>
         <v>29425.666666666668</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="3">
         <f>AVERAGE(W20:W22)</f>
         <v>296272.33333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
